--- a/data/Q&A_COVID-19(1).xlsx
+++ b/data/Q&A_COVID-19(1).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="279">
   <si>
     <t>question</t>
   </si>
@@ -946,10 +946,6 @@
     <t>i am afraid of coronavirus</t>
   </si>
   <si>
-    <t xml:space="preserve">hhhh you dont have, you are not the only one against coronavirus as you are not in the first range ,even if you are you know that people whoes daie because of suffering from hunger are Every year, around 9 million ,what this number present in front of covid-19 ,you have to know that this may be juste a political game ,as it is 100% a Media game
-</t>
-  </si>
-  <si>
     <t>What are the rights, duties and responsibilities of workers under coronavirus ?</t>
   </si>
   <si>
@@ -1059,6 +1055,85 @@
   </si>
   <si>
     <t>What should I do if I have coronavirus COVID-19 symptoms and when should I seek medical care?</t>
+  </si>
+  <si>
+    <t>i wanna tell you a secret can you keep it safe ?</t>
+  </si>
+  <si>
+    <t>my secret , is not important</t>
+  </si>
+  <si>
+    <t>even you feel that your secrets are not important but get in minde that they reflect your personnality ,so try to be a little ambiguous ,ok ?</t>
+  </si>
+  <si>
+    <t>ok ! ?</t>
+  </si>
+  <si>
+    <t>good boy</t>
+  </si>
+  <si>
+    <t>are you a boy or a girle</t>
+  </si>
+  <si>
+    <t>what do you think ?</t>
+  </si>
+  <si>
+    <t>yes i m a girle !</t>
+  </si>
+  <si>
+    <t>no i m not like you i am girle ,seems you did not try using microphone ?</t>
+  </si>
+  <si>
+    <t>juste click on the microphone icon to start recording when you end press it again Ok?</t>
+  </si>
+  <si>
+    <t>are you a robot</t>
+  </si>
+  <si>
+    <t>whoes your developpers</t>
+  </si>
+  <si>
+    <t>i'm developped by a team of two enginners students IDALI LAHCEN Abdessalam And ECCHARAY Mohammed of Ensah School</t>
+  </si>
+  <si>
+    <t>tell me about your self ?</t>
+  </si>
+  <si>
+    <t>you know python ,flutter,deep learning i'm mixt of those things what about you, tell me about your self what do you love ?</t>
+  </si>
+  <si>
+    <t>yes of course , my founders build me for that reason,i am all ears, go ahead !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you arae not supposed to, you are not the only one against coronavirus as you are not in the first range ,even if you are you know that people whoes die because of suffering from hunger are Every year, around 9 million ,what this number present in front of covid-19 ,you have to know that this may be juste a political game ,as it is 100% a Media game
+</t>
+  </si>
+  <si>
+    <t>are you girle ?</t>
+  </si>
+  <si>
+    <t>are you a boy ?</t>
+  </si>
+  <si>
+    <t>how to use microphone ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, im not, i am only a bunch of codes deployed on a server </t>
+  </si>
+  <si>
+    <t>what is my name</t>
+  </si>
+  <si>
+    <t>really i have a very low memory ? Maybe i can keep your name in the next version ,Sorry</t>
+  </si>
+  <si>
+    <t>nice to meet you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nice to meet you too </t>
+  </si>
+  <si>
+    <t>my name is</t>
   </si>
 </sst>
 </file>
@@ -1437,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1550,7 @@
     </row>
     <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1483,7 +1558,7 @@
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1731,7 +1806,7 @@
     </row>
     <row r="36" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>51</v>
@@ -1739,7 +1814,7 @@
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>52</v>
@@ -1755,7 +1830,7 @@
     </row>
     <row r="39" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>55</v>
@@ -1771,7 +1846,7 @@
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>58</v>
@@ -1787,7 +1862,7 @@
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>61</v>
@@ -1795,7 +1870,7 @@
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>62</v>
@@ -1803,7 +1878,7 @@
     </row>
     <row r="45" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>63</v>
@@ -1811,7 +1886,7 @@
     </row>
     <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>64</v>
@@ -1851,7 +1926,7 @@
     </row>
     <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>73</v>
@@ -1859,7 +1934,7 @@
     </row>
     <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>74</v>
@@ -1907,7 +1982,7 @@
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>85</v>
@@ -1915,7 +1990,7 @@
     </row>
     <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>86</v>
@@ -1923,7 +1998,7 @@
     </row>
     <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>87</v>
@@ -1947,7 +2022,7 @@
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>92</v>
@@ -1955,7 +2030,7 @@
     </row>
     <row r="64" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>93</v>
@@ -1963,7 +2038,7 @@
     </row>
     <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>94</v>
@@ -1971,7 +2046,7 @@
     </row>
     <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>95</v>
@@ -1995,7 +2070,7 @@
     </row>
     <row r="69" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>100</v>
@@ -2019,10 +2094,10 @@
     </row>
     <row r="72" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
@@ -2147,7 +2222,7 @@
     </row>
     <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>135</v>
@@ -2155,7 +2230,7 @@
     </row>
     <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>136</v>
@@ -2163,7 +2238,7 @@
     </row>
     <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>137</v>
@@ -2171,7 +2246,7 @@
     </row>
     <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>138</v>
@@ -2211,7 +2286,7 @@
     </row>
     <row r="96" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>147</v>
@@ -2235,7 +2310,7 @@
     </row>
     <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>152</v>
@@ -2243,7 +2318,7 @@
     </row>
     <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>153</v>
@@ -2259,10 +2334,10 @@
     </row>
     <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -2387,7 +2462,7 @@
     </row>
     <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>186</v>
@@ -2403,7 +2478,7 @@
     </row>
     <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>189</v>
@@ -2419,7 +2494,7 @@
     </row>
     <row r="122" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>192</v>
@@ -2435,7 +2510,7 @@
     </row>
     <row r="124" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>195</v>
@@ -2462,15 +2537,119 @@
         <v>216</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/Q&A_COVID-19(1).xlsx
+++ b/data/Q&A_COVID-19(1).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="281">
   <si>
     <t>question</t>
   </si>
@@ -209,9 +209,6 @@
     <t>The time between exposure to COVID-19 and the moment when symptoms start is commonly around five to six days but can range from 1 – 14 days.</t>
   </si>
   <si>
-    <t>What is the connection between COVID-19 and animals?</t>
-  </si>
-  <si>
     <t>COVID-19 is spread through human-to-human transmission.
 We already know a lot about other viruses in the coronavirus family and most of these types of viruses have an origin in animals. The COVID-19 virus (also called SARS-CoV-2) is a new virus in humans. The possible animal source of COVID-19 has not yet been confirmed but research is ongoing.
 WHO continues to monitor the latest research on this and other COVID-19 topics and will update, as new findings are available.</t>
@@ -1096,44 +1093,53 @@
     <t>i'm developped by a team of two enginners students IDALI LAHCEN Abdessalam And ECCHARAY Mohammed of Ensah School</t>
   </si>
   <si>
-    <t>tell me about your self ?</t>
-  </si>
-  <si>
-    <t>you know python ,flutter,deep learning i'm mixt of those things what about you, tell me about your self what do you love ?</t>
-  </si>
-  <si>
     <t>yes of course , my founders build me for that reason,i am all ears, go ahead !</t>
   </si>
   <si>
-    <t xml:space="preserve">you arae not supposed to, you are not the only one against coronavirus as you are not in the first range ,even if you are you know that people whoes die because of suffering from hunger are Every year, around 9 million ,what this number present in front of covid-19 ,you have to know that this may be juste a political game ,as it is 100% a Media game
+    <t>are you girle ?</t>
+  </si>
+  <si>
+    <t>are you a boy ?</t>
+  </si>
+  <si>
+    <t>how to use microphone ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, im not, i am only a bunch of codes deployed on a server </t>
+  </si>
+  <si>
+    <t>really i have a very low memory ? Maybe i can keep your name in the next version ,Sorry</t>
+  </si>
+  <si>
+    <t>nice to meet you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nice to meet you too </t>
+  </si>
+  <si>
+    <t>my name is</t>
+  </si>
+  <si>
+    <t>guess what is my name ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you are not supposed to, you are not the only one against coronavirus as you are not in the first range ,even if you are you know that people whoes die because of suffering from hunger are Every year, around 9 million ,what this number present in front of covid-19 ,you have to know that this may be juste a political game ,as it is 100% a Media game
 </t>
   </si>
   <si>
-    <t>are you girle ?</t>
-  </si>
-  <si>
-    <t>are you a boy ?</t>
-  </si>
-  <si>
-    <t>how to use microphone ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, im not, i am only a bunch of codes deployed on a server </t>
-  </si>
-  <si>
-    <t>what is my name</t>
-  </si>
-  <si>
-    <t>really i have a very low memory ? Maybe i can keep your name in the next version ,Sorry</t>
-  </si>
-  <si>
-    <t>nice to meet you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nice to meet you too </t>
-  </si>
-  <si>
-    <t>my name is</t>
+    <t>tell me a joke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i m not supposed to </t>
+  </si>
+  <si>
+    <t>Can animals transport this virus?</t>
+  </si>
+  <si>
+    <t>tell me about yourself ?</t>
+  </si>
+  <si>
+    <t>you know python ,flutter,deep learning i'm a mixt of those things what about you, tell me about your self what do you love ?</t>
   </si>
 </sst>
 </file>
@@ -1512,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,7 +1556,7 @@
     </row>
     <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1558,7 +1564,7 @@
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1566,7 +1572,7 @@
     </row>
     <row r="6" spans="1:2" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="7" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1582,7 +1588,7 @@
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -1606,7 +1612,7 @@
     </row>
     <row r="11" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -1622,7 +1628,7 @@
     </row>
     <row r="13" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -1630,7 +1636,7 @@
     </row>
     <row r="14" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
@@ -1646,7 +1652,7 @@
     </row>
     <row r="16" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -1662,7 +1668,7 @@
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>25</v>
@@ -1670,863 +1676,863 @@
     </row>
     <row r="19" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>15</v>
@@ -2534,98 +2540,98 @@
     </row>
     <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2633,23 +2639,31 @@
         <v>274</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>276</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data/Q&A_COVID-19(1).xlsx
+++ b/data/Q&A_COVID-19(1).xlsx
@@ -1090,9 +1090,6 @@
     <t>whoes your developpers</t>
   </si>
   <si>
-    <t>i'm developped by a team of two enginners students IDALI LAHCEN Abdessalam And ECCHARAY Mohammed of Ensah School</t>
-  </si>
-  <si>
     <t>yes of course , my founders build me for that reason,i am all ears, go ahead !</t>
   </si>
   <si>
@@ -1140,6 +1137,9 @@
   </si>
   <si>
     <t>you know python ,flutter,deep learning i'm a mixt of those things what about you, tell me about your self what do you love ?</t>
+  </si>
+  <si>
+    <t>i'm developped by a team of two enginners students IDALI LAHCEN Abdessalam And ECCHARAY Mohammed from Ensah School</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="B128" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="19" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>26</v>
@@ -2543,7 +2543,7 @@
         <v>215</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>252</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>259</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>260</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>261</v>
@@ -2615,7 +2615,7 @@
         <v>262</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2623,47 +2623,47 @@
         <v>263</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data/Q&A_COVID-19(1).xlsx
+++ b/data/Q&A_COVID-19(1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="10050"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="283">
   <si>
     <t>question</t>
   </si>
@@ -1140,6 +1140,13 @@
   </si>
   <si>
     <t>i'm developped by a team of two enginners students IDALI LAHCEN Abdessalam And ECCHARAY Mohammed from Ensah School</t>
+  </si>
+  <si>
+    <t>are lahcen abdessalam And eccharay Mohammed your developers?</t>
+  </si>
+  <si>
+    <t>Yes of course, They did a great job. I am not a perfect bot but a great one. 
+If you want to test me, try asking me what ever you want about covid-19. Or simplly start a regular discussion with me.</t>
   </si>
 </sst>
 </file>
@@ -1518,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B128" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="B139" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,6 +2671,14 @@
       </c>
       <c r="B142" s="2" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/data/Q&A_COVID-19(1).xlsx
+++ b/data/Q&A_COVID-19(1).xlsx
@@ -1069,18 +1069,9 @@
     <t>good boy</t>
   </si>
   <si>
-    <t>are you a boy or a girle</t>
-  </si>
-  <si>
     <t>what do you think ?</t>
   </si>
   <si>
-    <t>yes i m a girle !</t>
-  </si>
-  <si>
-    <t>no i m not like you i am girle ,seems you did not try using microphone ?</t>
-  </si>
-  <si>
     <t>juste click on the microphone icon to start recording when you end press it again Ok?</t>
   </si>
   <si>
@@ -1091,9 +1082,6 @@
   </si>
   <si>
     <t>yes of course , my founders build me for that reason,i am all ears, go ahead !</t>
-  </si>
-  <si>
-    <t>are you girle ?</t>
   </si>
   <si>
     <t>are you a boy ?</t>
@@ -1139,14 +1127,26 @@
     <t>you know python ,flutter,deep learning i'm a mixt of those things what about you, tell me about your self what do you love ?</t>
   </si>
   <si>
-    <t>i'm developped by a team of two enginners students IDALI LAHCEN Abdessalam And ECCHARAY Mohammed from Ensah School</t>
-  </si>
-  <si>
-    <t>are lahcen abdessalam And eccharay Mohammed your developers?</t>
-  </si>
-  <si>
     <t>Yes of course, They did a great job. I am not a perfect bot but a great one. 
 If you want to test me, try asking me what ever you want about covid-19. Or simplly start a regular discussion with me.</t>
+  </si>
+  <si>
+    <t>are you a boy or a girl</t>
+  </si>
+  <si>
+    <t>are you girl ?</t>
+  </si>
+  <si>
+    <t>yes i m a girl !</t>
+  </si>
+  <si>
+    <t>no i m not like you i am girl ,seems you did not try using microphone ?</t>
+  </si>
+  <si>
+    <t>i'm developped by a team of two enginners students IDALI LAHCEN Abdessalam And ECH-CHARAY Mohamed from Ensah School</t>
+  </si>
+  <si>
+    <t>are IDALI LAHCEN Abdessalam And ECH-CHARAY Mohamed your developers?</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B139" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="19" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>26</v>
@@ -2550,7 +2550,7 @@
         <v>215</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -2566,7 +2566,7 @@
         <v>252</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2587,98 +2587,98 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/Q&A_COVID-19(1).xlsx
+++ b/data/Q&A_COVID-19(1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="10050"/>
@@ -1124,9 +1124,6 @@
     <t>tell me about yourself ?</t>
   </si>
   <si>
-    <t>you know python ,flutter,deep learning i'm a mixt of those things what about you, tell me about your self what do you love ?</t>
-  </si>
-  <si>
     <t>Yes of course, They did a great job. I am not a perfect bot but a great one. 
 If you want to test me, try asking me what ever you want about covid-19. Or simplly start a regular discussion with me.</t>
   </si>
@@ -1147,6 +1144,9 @@
   </si>
   <si>
     <t>are IDALI LAHCEN Abdessalam And ECH-CHARAY Mohamed your developers?</t>
+  </si>
+  <si>
+    <t>you know python, flutter, AI, deep learning i'm a mixt of those things what about you, tell me about your self what do you love ?</t>
   </si>
 </sst>
 </file>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>257</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>262</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2630,7 +2630,7 @@
         <v>260</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2638,7 @@
         <v>274</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2675,10 +2675,10 @@
     </row>
     <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/Q&A_COVID-19(1).xlsx
+++ b/data/Q&A_COVID-19(1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="10050"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="287">
   <si>
     <t>question</t>
   </si>
@@ -1147,6 +1147,18 @@
   </si>
   <si>
     <t>you know python, flutter, AI, deep learning i'm a mixt of those things what about you, tell me about your self what do you love ?</t>
+  </si>
+  <si>
+    <t>who is idali lahcen abdessalam ?</t>
+  </si>
+  <si>
+    <t>he is a student engineer at ENSAH, one of my founders you can contact him on sibawayh.idali@gmail.com</t>
+  </si>
+  <si>
+    <t>he is a student engineer at ENSAH, one of my founders you can contact him on echcharaymoh@gmail.com</t>
+  </si>
+  <si>
+    <t>who is mohamed ech-charay</t>
   </si>
 </sst>
 </file>
@@ -1525,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,6 +2691,22 @@
       </c>
       <c r="B143" s="2" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
